--- a/src/main/resources/data/datalevel.xlsx
+++ b/src/main/resources/data/datalevel.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse\java\staff\staff-notificationv2\src\main\resources\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C017B4-DBE4-4D04-A92F-EEA3F45FA6E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{70944D41-5E6A-4D5D-B227-4AA2D09280FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{56CCF43E-E6A1-4784-A143-F48E4CC78729}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>TGD</t>
   </si>
@@ -96,12 +92,6 @@
   </si>
   <si>
     <t>Giám Đốc Tài Chính</t>
-  </si>
-  <si>
-    <t>NVTV</t>
-  </si>
-  <si>
-    <t>Nhân viên thử việc</t>
   </si>
 </sst>
 </file>
@@ -483,7 +473,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -560,66 +550,55 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1">
+        <v>40</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1">
         <v>20</v>
       </c>
-      <c r="B7" s="1">
-        <v>30</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1">
-        <v>40</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="1">
-        <v>80</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="1"/>
-    </row>
+    <row r="11" spans="1:4" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/resources/data/datalevel.xlsx
+++ b/src/main/resources/data/datalevel.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{70944D41-5E6A-4D5D-B227-4AA2D09280FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse\java\staff2\staff-notificationv2\src\main\resources\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1D73E2-D886-401B-9670-DCBC850B7408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{56CCF43E-E6A1-4784-A143-F48E4CC78729}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,73 +36,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>TGD</t>
-  </si>
-  <si>
-    <t>Tổng Giám Đốc</t>
-  </si>
-  <si>
-    <t>PGD</t>
-  </si>
-  <si>
-    <t>Phó Giám Đốc</t>
-  </si>
-  <si>
-    <t>GD</t>
-  </si>
-  <si>
-    <t>TP</t>
-  </si>
-  <si>
-    <t>Trưởng phòng</t>
-  </si>
-  <si>
-    <t>PP</t>
-  </si>
-  <si>
-    <t>Phó Phòng</t>
-  </si>
-  <si>
-    <t>TT</t>
-  </si>
-  <si>
-    <t>Thực tập</t>
-  </si>
-  <si>
-    <t>NV</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Nhân viên</t>
   </si>
   <si>
-    <t>CTV</t>
-  </si>
-  <si>
-    <t>Cộng tác viên</t>
-  </si>
-  <si>
-    <t>TDD</t>
-  </si>
-  <si>
-    <t>Trưởng đại diện</t>
-  </si>
-  <si>
-    <t>TN</t>
-  </si>
-  <si>
-    <t>Trưởng nhóm</t>
-  </si>
-  <si>
-    <t>Giám Đốc Tài Chính</t>
+    <t>Quản lí 1</t>
+  </si>
+  <si>
+    <t>Quản lí 2</t>
+  </si>
+  <si>
+    <t>Quản lí 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Phó phòng giải pháp,Phó phòng Nghiên cứu và Phát triển,Phó phòng Mua hàng</t>
+  </si>
+  <si>
+    <t>Tổng Giám đốc,Phó Giám đốc,Giám Đốc tài chính</t>
+  </si>
+  <si>
+    <t>Trưởng đại diện văn phòng HCM ,Trưởng phòng Nghiên cứu và Phát triển ,Trưởng phòng Hợp đồng ,Trưởng phòng Giải pháp ,Trưởng phòng Quản lý dự án</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,6 +75,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -133,9 +104,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,135 +447,94 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{771DD443-6F27-4CF5-9117-2E07B8AF9442}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.88671875" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>99</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
-        <v>95</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="B3" s="1">
-        <v>95</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1">
-        <v>80</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1">
-        <v>70</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="2"/>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="2"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1">
-        <v>40</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>12</v>
-      </c>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="1">
-        <v>20</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>14</v>
-      </c>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="1">
-        <v>90</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>16</v>
-      </c>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="1">
-        <v>80</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
